--- a/Assets/GameInfo/Excel/GameInfo.xlsx
+++ b/Assets/GameInfo/Excel/GameInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\UnityProject\MyFrameWork\Assets\GameInfo\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29225A5C-8452-420A-A3FA-D61CD78661C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2CFC8D-2282-4FAC-9C6E-4BDF68E0854A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5970" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
